--- a/myapp/files/9_MethodComparePercent/Scenario 342.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 342.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6480</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.28824988866976</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.72413793103448</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2812</v>
+        <v>11638</v>
       </c>
       <c r="F3" t="n">
-        <v>3.60272638753651</v>
+        <v>2.31368089573128</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.56410256410256</v>
+        <v>1.70212765957447</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1710</v>
+        <v>11197</v>
       </c>
       <c r="F4" t="n">
-        <v>2.19084712755599</v>
+        <v>2.22600833386348</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.56410256410256</v>
+        <v>1.70212765957447</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2935</v>
+        <v>17932</v>
       </c>
       <c r="F5" t="n">
-        <v>3.76031363706247</v>
+        <v>3.56495324130034</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>5.12820512820513</v>
+        <v>2.97872340425532</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>936</v>
+        <v>17144</v>
       </c>
       <c r="F6" t="n">
-        <v>1.19920053297801</v>
+        <v>3.40829569311025</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.56410256410256</v>
+        <v>3.82978723404255</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3528</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.701380494942426</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1650</v>
+        <v>6986</v>
       </c>
       <c r="F8" t="n">
-        <v>2.11397529851894</v>
+        <v>1.3888447102233</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.72413793103448</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.56410256410256</v>
+        <v>2.12765957446809</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1772</v>
+        <v>13795</v>
       </c>
       <c r="F9" t="n">
-        <v>2.27028135089428</v>
+        <v>2.74250111330237</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.72413793103448</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>5.12820512820513</v>
+        <v>5.1063829787234</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>5135</v>
+        <v>34112</v>
       </c>
       <c r="F10" t="n">
-        <v>6.57894736842105</v>
+        <v>6.78160188307144</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>6.89655172413793</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>5.12820512820513</v>
+        <v>6.80851063829787</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2340</v>
+        <v>36453</v>
       </c>
       <c r="F11" t="n">
-        <v>2.99800133244504</v>
+        <v>7.24700203575291</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -935,10 +935,10 @@
         <v>10.3448275862069</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>2.56410256410256</v>
+        <v>6.80851063829787</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -964,7 +964,7 @@
         <v>848</v>
       </c>
       <c r="F12" t="n">
-        <v>1.08645518372367</v>
+        <v>0.168585787899994</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.56410256410256</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4293</v>
+        <v>9326</v>
       </c>
       <c r="F13" t="n">
-        <v>5.50017936760109</v>
+        <v>1.8540460589096</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.72413793103448</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.56410256410256</v>
+        <v>2.12765957446809</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>16632</v>
+        <v>39973</v>
       </c>
       <c r="F14" t="n">
-        <v>21.3088710090709</v>
+        <v>7.94679209873402</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1049,10 +1049,10 @@
         <v>6.89655172413793</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>15.3846153846154</v>
+        <v>7.65957446808511</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>16769</v>
+        <v>63641</v>
       </c>
       <c r="F15" t="n">
-        <v>21.4843950187055</v>
+        <v>12.6520850563013</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
@@ -1087,10 +1087,10 @@
         <v>20.6896551724138</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>20.5128205128205</v>
+        <v>11.063829787234</v>
       </c>
       <c r="K15" t="n">
         <v>11</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>14405</v>
+        <v>53521</v>
       </c>
       <c r="F16" t="n">
-        <v>18.4556449546456</v>
+        <v>10.6401886252306</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>5.17241379310345</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
-        <v>12.8205128205128</v>
+        <v>9.78723404255319</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.209539410904002</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>8180</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.62621668045041</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.12765957446809</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>612</v>
+        <v>13773</v>
       </c>
       <c r="F19" t="n">
-        <v>0.784092656177933</v>
+        <v>2.73812742540874</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1239,10 +1239,10 @@
         <v>3.44827586206897</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>2.56410256410256</v>
+        <v>4.68085106382979</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>720</v>
+        <v>43403</v>
       </c>
       <c r="F20" t="n">
-        <v>0.922461948444627</v>
+        <v>8.62868980215026</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
@@ -1277,10 +1277,10 @@
         <v>29.3103448275862</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>5.12820512820513</v>
+        <v>8.08510638297872</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1026</v>
+        <v>44502</v>
       </c>
       <c r="F21" t="n">
-        <v>1.31450827653359</v>
+        <v>8.84717539283669</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>3.44827586206897</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J21" t="n">
-        <v>5.12820512820513</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="K21" t="n">
         <v>8</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1903</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.37832400279916</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>11475</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.28127584451937</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.72413793103448</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.27659574468085</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>546</v>
+        <v>12637</v>
       </c>
       <c r="F24" t="n">
-        <v>0.699533644237175</v>
+        <v>2.5122860869012</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.56410256410256</v>
+        <v>2.5531914893617</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>17507</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.48046154335518</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>5.17241379310345</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.40425531914894</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>2911</v>
+        <v>22000</v>
       </c>
       <c r="F26" t="n">
-        <v>3.72956490544765</v>
+        <v>4.37368789363191</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.56410256410256</v>
+        <v>3.82978723404255</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
